--- a/doc_testbed/Target_v13e_pre-deployment-tests.xlsx
+++ b/doc_testbed/Target_v13e_pre-deployment-tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Documents\GitHub\shepherd_v2_planning\doc_testbed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DD8316-203C-47C6-9BB3-510EB5F2FEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4328CF5A-F5C3-49FB-99CC-46D9FA1C5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16440" yWindow="0" windowWidth="28416" windowHeight="25296" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
+    <workbookView xWindow="6156" yWindow="996" windowWidth="15156" windowHeight="23088" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
   <si>
     <t>Target</t>
   </si>
@@ -153,10 +153,56 @@
     <t>T_max = 240°C</t>
   </si>
   <si>
-    <t>T_max = 245°C</t>
-  </si>
-  <si>
-    <t>2nd batch, lower temp</t>
+    <t>T_max = 245°C, T5 Paste</t>
+  </si>
+  <si>
+    <t>Pin Led2</t>
+  </si>
+  <si>
+    <t>new Process</t>
+  </si>
+  <si>
+    <t>C12, C8, C28, L2</t>
+  </si>
+  <si>
+    <t>L2?</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>C16, L1</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>only Riotee</t>
+  </si>
+  <si>
+    <t>flakey</t>
+  </si>
+  <si>
+    <t>below only tested on Riotee</t>
+  </si>
+  <si>
+    <t>(OK)</t>
+  </si>
+  <si>
+    <t>not 18</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>AB1805 missing
+special faults added</t>
+  </si>
+  <si>
+    <t>2nd batch, 165° C, T4 Paste</t>
   </si>
 </sst>
 </file>
@@ -186,12 +232,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -214,10 +266,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -225,18 +277,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -262,6 +302,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -284,15 +336,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AD7FE81-A7F6-4917-AEFC-78F3D59AF956}" name="Table1" displayName="Table1" ref="A1:I31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I31" xr:uid="{3AD7FE81-A7F6-4917-AEFC-78F3D59AF956}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AB1111EA-1189-4670-B60E-2E04180241E7}" name="Target" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{9C88A57E-F780-4CC3-BA99-046F311B4956}" name="Visual" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{7195CB4D-4AF3-465C-AF5A-354CCBF97D0C}" name="Pgm1 nRF" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{2CC13D68-4199-4EB2-B005-409CEE8AEA08}" name="Pgm2 MSP" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{C8A879B1-C30E-4081-82A2-091E8E4E8DB1}" name="T1 GPIO" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{903CC865-8B03-4D80-A86B-E4E0A53B7DB0}" name="T2 RF" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{4B5E2432-0988-4E75-864C-D73D05146064}" name="T3 Sleep" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{94650C81-E1B2-4E5C-8E32-27458281274E}" name="cleaned" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{4F9009E0-8056-4545-95BD-48D33DC9717D}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AB1111EA-1189-4670-B60E-2E04180241E7}" name="Target" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{9C88A57E-F780-4CC3-BA99-046F311B4956}" name="Visual" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7195CB4D-4AF3-465C-AF5A-354CCBF97D0C}" name="Pgm1 nRF" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2CC13D68-4199-4EB2-B005-409CEE8AEA08}" name="Pgm2 MSP" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C8A879B1-C30E-4081-82A2-091E8E4E8DB1}" name="T1 GPIO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{903CC865-8B03-4D80-A86B-E4E0A53B7DB0}" name="T2 RF" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4B5E2432-0988-4E75-864C-D73D05146064}" name="T3 Sleep" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{94650C81-E1B2-4E5C-8E32-27458281274E}" name="cleaned" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{4F9009E0-8056-4545-95BD-48D33DC9717D}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -601,7 +653,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,16 +699,24 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-47</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -664,16 +724,24 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-47</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -685,12 +753,20 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -700,25 +776,43 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-47</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -726,31 +820,47 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-51</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-49</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
@@ -762,10 +872,18 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-44</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
@@ -777,40 +895,66 @@
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-46</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-45</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-48</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -822,25 +966,41 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-52</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -849,25 +1009,41 @@
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -877,10 +1053,18 @@
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -890,10 +1074,18 @@
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -903,10 +1095,18 @@
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -916,23 +1116,39 @@
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -942,128 +1158,232 @@
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-48</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-46</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-48</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-48</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-49</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-49</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-47</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-49</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-48</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-50</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>

--- a/doc_testbed/Target_v13e_pre-deployment-tests.xlsx
+++ b/doc_testbed/Target_v13e_pre-deployment-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Documents\GitHub\shepherd_v2_planning\doc_testbed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4328CF5A-F5C3-49FB-99CC-46D9FA1C5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED8B6B5-37FC-47CE-A5A3-C40FED4B76C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6156" yWindow="996" windowWidth="15156" windowHeight="23088" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
+    <workbookView xWindow="26172" yWindow="1464" windowWidth="15156" windowHeight="23088" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
   <si>
     <t>Target</t>
   </si>
@@ -156,9 +156,6 @@
     <t>T_max = 245°C, T5 Paste</t>
   </si>
   <si>
-    <t>Pin Led2</t>
-  </si>
-  <si>
     <t>new Process</t>
   </si>
   <si>
@@ -198,11 +195,19 @@
     <t>1x</t>
   </si>
   <si>
+    <t>2nd batch, 165° C, T4 Paste</t>
+  </si>
+  <si>
     <t>AB1805 missing
-special faults added</t>
-  </si>
-  <si>
-    <t>2nd batch, 165° C, T4 Paste</t>
+special faults added
+Darmstadt</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Pin Led2
+Darmstadt</t>
   </si>
 </sst>
 </file>
@@ -258,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,6 +275,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,7 +661,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,8 +764,8 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -765,7 +773,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -782,16 +790,16 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
+      <c r="E5" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -875,8 +883,8 @@
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>52</v>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -892,7 +900,7 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -969,8 +977,8 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
@@ -978,7 +986,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -1009,8 +1017,8 @@
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
+      <c r="B15" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1025,15 +1033,15 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -1053,8 +1061,8 @@
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -1074,8 +1082,8 @@
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
+      <c r="B18" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1095,8 +1103,8 @@
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>47</v>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1110,14 +1118,16 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
+      <c r="B20" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -1158,8 +1168,8 @@
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -1175,7 +1185,9 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1185,10 +1197,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -1199,7 +1211,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1210,10 +1222,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
@@ -1224,7 +1236,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1235,10 +1247,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
@@ -1258,10 +1270,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
@@ -1281,10 +1293,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
@@ -1304,10 +1316,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
@@ -1327,10 +1339,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
@@ -1350,10 +1362,10 @@
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
@@ -1373,10 +1385,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
